--- a/prop/dbconnect.xlsx
+++ b/prop/dbconnect.xlsx
@@ -7,14 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CONNEECT" sheetId="1" r:id="rId1"/>
+    <sheet name="SQL01" sheetId="2" r:id="rId2"/>
+    <sheet name="SQL02" sheetId="3" r:id="rId3"/>
+    <sheet name="SQL03" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
   <si>
     <t>DBTYPE</t>
   </si>
@@ -55,9 +58,6 @@
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>KEY</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -209,6 +209,96 @@
   </si>
   <si>
     <t>20170909111213001</t>
+  </si>
+  <si>
+    <t>DERBY</t>
+  </si>
+  <si>
+    <t>SQL001</t>
+  </si>
+  <si>
+    <t>SQL002</t>
+  </si>
+  <si>
+    <t>SQL003</t>
+  </si>
+  <si>
+    <t>SQL004</t>
+  </si>
+  <si>
+    <t>SQL005</t>
+  </si>
+  <si>
+    <t>SQL006</t>
+  </si>
+  <si>
+    <t>SQL007</t>
+  </si>
+  <si>
+    <t>SQL008</t>
+  </si>
+  <si>
+    <t>SQL009</t>
+  </si>
+  <si>
+    <t>SQL010</t>
+  </si>
+  <si>
+    <t>SQL011</t>
+  </si>
+  <si>
+    <t>SQL012</t>
+  </si>
+  <si>
+    <t>SQL013</t>
+  </si>
+  <si>
+    <t>SQL014</t>
+  </si>
+  <si>
+    <t>SQL015</t>
+  </si>
+  <si>
+    <t>SQL016</t>
+  </si>
+  <si>
+    <t>SQL017</t>
+  </si>
+  <si>
+    <t>SQL018</t>
+  </si>
+  <si>
+    <t>SQL019</t>
+  </si>
+  <si>
+    <t>SQL020</t>
+  </si>
+  <si>
+    <t>SQL021</t>
+  </si>
+  <si>
+    <t>SQL022</t>
+  </si>
+  <si>
+    <t>SQL023</t>
+  </si>
+  <si>
+    <t>SQL024</t>
+  </si>
+  <si>
+    <t>SQL025</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t>连接串</t>
+  </si>
+  <si>
+    <t>SQL_ID</t>
+  </si>
+  <si>
+    <t>KEY_ID</t>
   </si>
 </sst>
 </file>
@@ -224,12 +314,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -244,9 +340,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -569,239 +666,786 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="6" max="10" width="9.140625" style="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>